--- a/study01/report/motivation/scr-effective-participants/pressure-tension/by-Type/NonParametricAnalysis.xlsx
+++ b/study01/report/motivation/scr-effective-participants/pressure-tension/by-Type/NonParametricAnalysis.xlsx
@@ -17581,13 +17581,13 @@
         <v>66.0</v>
       </c>
       <c r="G7" t="n" s="396">
-        <v>1.2257217556989932</v>
+        <v>1.2257217556989934</v>
       </c>
       <c r="H7" t="n" s="397">
         <v>0.8911916257117496</v>
       </c>
       <c r="I7" t="n" s="398">
-        <v>0.2740797167243339</v>
+        <v>0.27407971672433395</v>
       </c>
       <c r="J7" t="s" s="399">
         <v>47</v>
@@ -17613,13 +17613,13 @@
         <v>66.0</v>
       </c>
       <c r="G8" t="n" s="396">
-        <v>1.2257217556989932</v>
+        <v>1.2257217556989934</v>
       </c>
       <c r="H8" t="n" s="397">
         <v>0.8911916257117496</v>
       </c>
       <c r="I8" t="n" s="398">
-        <v>0.2740797167243339</v>
+        <v>0.27407971672433395</v>
       </c>
       <c r="J8" t="s" s="399">
         <v>47</v>
@@ -17682,13 +17682,13 @@
         <v>66.0</v>
       </c>
       <c r="G11" t="n" s="424">
-        <v>1.2257217556989932</v>
+        <v>1.2257217556989934</v>
       </c>
       <c r="H11" t="n" s="425">
         <v>0.11698131589772456</v>
       </c>
       <c r="I11" t="n" s="426">
-        <v>0.2740797167243339</v>
+        <v>0.27407971672433395</v>
       </c>
       <c r="J11" t="s" s="427">
         <v>47</v>
@@ -17714,13 +17714,13 @@
         <v>66.0</v>
       </c>
       <c r="G12" t="n" s="424">
-        <v>1.2257217556989932</v>
+        <v>1.2257217556989934</v>
       </c>
       <c r="H12" t="n" s="425">
         <v>0.11698131589772456</v>
       </c>
       <c r="I12" t="n" s="426">
-        <v>0.2740797167243339</v>
+        <v>0.27407971672433395</v>
       </c>
       <c r="J12" t="s" s="427">
         <v>47</v>
@@ -17783,13 +17783,13 @@
         <v>66.0</v>
       </c>
       <c r="G15" t="n" s="452">
-        <v>1.2257217556989932</v>
+        <v>1.2257217556989934</v>
       </c>
       <c r="H15" t="n" s="453">
         <v>0.23396263179544913</v>
       </c>
       <c r="I15" t="n" s="454">
-        <v>0.2740797167243339</v>
+        <v>0.27407971672433395</v>
       </c>
       <c r="J15" t="s" s="455">
         <v>47</v>
@@ -17815,13 +17815,13 @@
         <v>66.0</v>
       </c>
       <c r="G16" t="n" s="452">
-        <v>1.2257217556989932</v>
+        <v>1.2257217556989934</v>
       </c>
       <c r="H16" t="n" s="453">
         <v>0.23396263179544913</v>
       </c>
       <c r="I16" t="n" s="454">
-        <v>0.2740797167243339</v>
+        <v>0.27407971672433395</v>
       </c>
       <c r="J16" t="s" s="455">
         <v>47</v>
@@ -22803,13 +22803,13 @@
         <v>81.0</v>
       </c>
       <c r="G7" t="n" s="730">
-        <v>0.6516459010203415</v>
+        <v>0.6516459010203413</v>
       </c>
       <c r="H7" t="n" s="731">
         <v>0.7455625374759848</v>
       </c>
       <c r="I7" t="n" s="732">
-        <v>0.13301666253966907</v>
+        <v>0.133016662539669</v>
       </c>
       <c r="J7" t="s" s="733">
         <v>47</v>
@@ -22835,13 +22835,13 @@
         <v>81.0</v>
       </c>
       <c r="G8" t="n" s="730">
-        <v>0.6516459010203415</v>
+        <v>0.6516459010203413</v>
       </c>
       <c r="H8" t="n" s="731">
         <v>0.7455625374759848</v>
       </c>
       <c r="I8" t="n" s="732">
-        <v>0.13301666253966907</v>
+        <v>0.133016662539669</v>
       </c>
       <c r="J8" t="s" s="733">
         <v>47</v>
@@ -22904,13 +22904,13 @@
         <v>81.0</v>
       </c>
       <c r="G11" t="n" s="758">
-        <v>0.6516459010203415</v>
+        <v>0.6516459010203413</v>
       </c>
       <c r="H11" t="n" s="759">
         <v>0.26529734007187233</v>
       </c>
       <c r="I11" t="n" s="760">
-        <v>0.13301666253966907</v>
+        <v>0.133016662539669</v>
       </c>
       <c r="J11" t="s" s="761">
         <v>47</v>
@@ -22936,13 +22936,13 @@
         <v>81.0</v>
       </c>
       <c r="G12" t="n" s="758">
-        <v>0.6516459010203415</v>
+        <v>0.6516459010203413</v>
       </c>
       <c r="H12" t="n" s="759">
         <v>0.26529734007187233</v>
       </c>
       <c r="I12" t="n" s="760">
-        <v>0.13301666253966907</v>
+        <v>0.133016662539669</v>
       </c>
       <c r="J12" t="s" s="761">
         <v>47</v>
@@ -23005,13 +23005,13 @@
         <v>81.0</v>
       </c>
       <c r="G15" t="n" s="786">
-        <v>0.6516459010203415</v>
+        <v>0.6516459010203413</v>
       </c>
       <c r="H15" t="n" s="787">
         <v>0.5297309479231675</v>
       </c>
       <c r="I15" t="n" s="788">
-        <v>0.13301666253966907</v>
+        <v>0.133016662539669</v>
       </c>
       <c r="J15" t="s" s="789">
         <v>47</v>
@@ -23037,13 +23037,13 @@
         <v>81.0</v>
       </c>
       <c r="G16" t="n" s="786">
-        <v>0.6516459010203415</v>
+        <v>0.6516459010203413</v>
       </c>
       <c r="H16" t="n" s="787">
         <v>0.5297309479231675</v>
       </c>
       <c r="I16" t="n" s="788">
-        <v>0.13301666253966907</v>
+        <v>0.133016662539669</v>
       </c>
       <c r="J16" t="s" s="789">
         <v>47</v>
@@ -28381,13 +28381,13 @@
         <v>51.5</v>
       </c>
       <c r="G7" t="n" s="1064">
-        <v>-1.1023460950313422</v>
+        <v>-1.102346095031342</v>
       </c>
       <c r="H7" t="n" s="1065">
         <v>0.14233328030608958</v>
       </c>
       <c r="I7" t="n" s="1066">
-        <v>0.22501545439803028</v>
+        <v>0.22501545439803022</v>
       </c>
       <c r="J7" t="s" s="1067">
         <v>47</v>
@@ -28413,13 +28413,13 @@
         <v>51.5</v>
       </c>
       <c r="G8" t="n" s="1064">
-        <v>-1.1023460950313422</v>
+        <v>-1.102346095031342</v>
       </c>
       <c r="H8" t="n" s="1065">
         <v>0.14233328030608958</v>
       </c>
       <c r="I8" t="n" s="1066">
-        <v>0.22501545439803028</v>
+        <v>0.22501545439803022</v>
       </c>
       <c r="J8" t="s" s="1067">
         <v>47</v>
@@ -28482,13 +28482,13 @@
         <v>51.5</v>
       </c>
       <c r="G11" t="n" s="1092">
-        <v>-1.1023460950313422</v>
+        <v>-1.102346095031342</v>
       </c>
       <c r="H11" t="n" s="1093">
         <v>0.8636118895238561</v>
       </c>
       <c r="I11" t="n" s="1094">
-        <v>0.22501545439803028</v>
+        <v>0.22501545439803022</v>
       </c>
       <c r="J11" t="s" s="1095">
         <v>47</v>
@@ -28514,13 +28514,13 @@
         <v>51.5</v>
       </c>
       <c r="G12" t="n" s="1092">
-        <v>-1.1023460950313422</v>
+        <v>-1.102346095031342</v>
       </c>
       <c r="H12" t="n" s="1093">
         <v>0.8636118895238561</v>
       </c>
       <c r="I12" t="n" s="1094">
-        <v>0.22501545439803028</v>
+        <v>0.22501545439803022</v>
       </c>
       <c r="J12" t="s" s="1095">
         <v>47</v>
@@ -28583,13 +28583,13 @@
         <v>51.5</v>
       </c>
       <c r="G15" t="n" s="1120">
-        <v>-1.1023460950313422</v>
+        <v>-1.102346095031342</v>
       </c>
       <c r="H15" t="n" s="1121">
         <v>0.2836427269056156</v>
       </c>
       <c r="I15" t="n" s="1122">
-        <v>0.22501545439803028</v>
+        <v>0.22501545439803022</v>
       </c>
       <c r="J15" t="s" s="1123">
         <v>47</v>
@@ -28615,13 +28615,13 @@
         <v>51.5</v>
       </c>
       <c r="G16" t="n" s="1120">
-        <v>-1.1023460950313422</v>
+        <v>-1.102346095031342</v>
       </c>
       <c r="H16" t="n" s="1121">
         <v>0.2836427269056156</v>
       </c>
       <c r="I16" t="n" s="1122">
-        <v>0.22501545439803028</v>
+        <v>0.22501545439803022</v>
       </c>
       <c r="J16" t="s" s="1123">
         <v>47</v>
